--- a/biology/Botanique/Pl@ntNet/Pl@ntNet.xlsx
+++ b/biology/Botanique/Pl@ntNet/Pl@ntNet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pl@ntNet est un projet informatique d'identification des plantes à partir de photographies par apprentissage automatique.
 </t>
@@ -511,10 +523,12 @@
           <t>Développement de l'application</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce projet lancé en 2009 est l'œuvre de scientifiques (informaticiens et botanistes) d’un consortium regroupant des instituts de recherche français (Institut de recherche pour le développement (IRD), Centre de coopération internationale en recherche agronomique pour le développement (CIRAD), Institut national de la recherche agronomique (INRA, devenu l'Institut national de recherche pour l'agriculture, l'alimentation et l'environnement, ou INRAE), l'Institut national de recherche en informatique et en automatique (INRIA) et le réseau Tela Botanica, avec le concours de la fondation Agropolis Fondation (en)[1]).
-Il aboutit en 2013 à une application pour smartphones et un site Web[2], qui permettent d’identifier des milliers d’espèces de plantes à partir de photos prises par l'utilisateur. Elle est disponible dans 27 langues en février 2021[3]. En 2019, l'application comptabilise plus de dix millions de téléchargements dans plus de 180 pays[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce projet lancé en 2009 est l'œuvre de scientifiques (informaticiens et botanistes) d’un consortium regroupant des instituts de recherche français (Institut de recherche pour le développement (IRD), Centre de coopération internationale en recherche agronomique pour le développement (CIRAD), Institut national de la recherche agronomique (INRA, devenu l'Institut national de recherche pour l'agriculture, l'alimentation et l'environnement, ou INRAE), l'Institut national de recherche en informatique et en automatique (INRIA) et le réseau Tela Botanica, avec le concours de la fondation Agropolis Fondation (en)).
+Il aboutit en 2013 à une application pour smartphones et un site Web, qui permettent d’identifier des milliers d’espèces de plantes à partir de photos prises par l'utilisateur. Elle est disponible dans 27 langues en février 2021. En 2019, l'application comptabilise plus de dix millions de téléchargements dans plus de 180 pays.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Données</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2020, des données de Pl@ntnet sont intégrées à la base de données internationale du Global Biodiversity Information Facility (GBIF, en français « Système mondial d'informations sur la biodiversité »)[5]. Les données sont utilisées dans de nombreuses études[6].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2020, des données de Pl@ntnet sont intégrées à la base de données internationale du Global Biodiversity Information Facility (GBIF, en français « Système mondial d'informations sur la biodiversité »). Les données sont utilisées dans de nombreuses études.  
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Projets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pl@ntNet compte, en 2019, 22 projets[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pl@ntNet compte, en 2019, 22 projets :
 16 projets géographiques :
 Afrique du Nord (3 030 espèces),
 Afrique tropicale (1 405 espèces),
@@ -630,9 +648,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2020 : Prix de l’innovation Inria - Académie des sciences - Dassault Systèmes[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2020 : Prix de l’innovation Inria - Académie des sciences - Dassault Systèmes.</t>
         </is>
       </c>
     </row>
